--- a/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\repos\ses-portal\static\download\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="APT_ATFM_SES_YY" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="56" r:id="rId6"/>
+    <pivotCache cacheId="43" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="460">
   <si>
     <t>Data source</t>
   </si>
@@ -1400,6 +1400,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>minor corrections in the number of arrivals</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1927,11 +1933,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2157,13 +2178,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2226,6 +2241,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2244,7 +2269,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44209.696518055556" refreshedVersion="6" recordCount="161">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44211.447619907405" refreshedVersion="6" recordCount="161">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:F166" sheet="APT_ATFM_APT"/>
   </cacheSource>
@@ -2508,7 +2533,7 @@
     <s v="Brno-Tuřany (LKTB)"/>
     <s v="LKTB"/>
     <n v="0"/>
-    <n v="2573"/>
+    <n v="2571"/>
     <n v="0"/>
   </r>
   <r>
@@ -2524,7 +2549,7 @@
     <s v="Bucharest/ Băneasa (LRBS)"/>
     <s v="LRBS"/>
     <n v="0"/>
-    <n v="2466"/>
+    <n v="2463"/>
     <n v="0"/>
   </r>
   <r>
@@ -2548,7 +2573,7 @@
     <s v="Bydgoszcz (EPBY)"/>
     <s v="EPBY"/>
     <n v="0"/>
-    <n v="1059"/>
+    <n v="1058"/>
     <n v="0"/>
   </r>
   <r>
@@ -2612,7 +2637,7 @@
     <s v="Châteauroux-Déols (LFLX)"/>
     <s v="LFLX"/>
     <n v="0"/>
-    <n v="1207"/>
+    <n v="1208"/>
     <n v="0"/>
   </r>
   <r>
@@ -2683,8 +2708,8 @@
     <x v="15"/>
     <s v="Dublin (EIDW)"/>
     <s v="EIDW"/>
-    <n v="0.14072744840913798"/>
-    <n v="43467"/>
+    <n v="0.14073716178906681"/>
+    <n v="43464"/>
     <n v="6117"/>
   </r>
   <r>
@@ -2708,7 +2733,7 @@
     <s v="Erfurt (EDDE)"/>
     <s v="EDDE"/>
     <n v="0"/>
-    <n v="1745"/>
+    <n v="1743"/>
     <n v="0"/>
   </r>
   <r>
@@ -2748,7 +2773,7 @@
     <s v="Gdansk (EPGD)"/>
     <s v="EPGD"/>
     <n v="0"/>
-    <n v="10818"/>
+    <n v="10817"/>
     <n v="0"/>
   </r>
   <r>
@@ -2860,7 +2885,7 @@
     <s v="Istres-Le Tubé (LFMI)"/>
     <s v="LFMI"/>
     <n v="0"/>
-    <n v="1443"/>
+    <n v="1442"/>
     <n v="0"/>
   </r>
   <r>
@@ -2916,15 +2941,15 @@
     <s v="Liepaja (EVLA)"/>
     <s v="EVLA"/>
     <n v="0"/>
-    <n v="307"/>
+    <n v="306"/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <s v="Lille-Lesquin (LFQQ)"/>
     <s v="LFQQ"/>
-    <n v="0.33396333396333394"/>
-    <n v="5291"/>
+    <n v="0.33402646502835537"/>
+    <n v="5290"/>
     <n v="1767"/>
   </r>
   <r>
@@ -2940,7 +2965,7 @@
     <s v="Linz (LOWL)"/>
     <s v="LOWL"/>
     <n v="0"/>
-    <n v="3445"/>
+    <n v="3444"/>
     <n v="0"/>
   </r>
   <r>
@@ -3012,7 +3037,7 @@
     <s v="Lublin (EPLB)"/>
     <s v="EPLB"/>
     <n v="0"/>
-    <n v="845"/>
+    <n v="844"/>
     <n v="0"/>
   </r>
   <r>
@@ -3027,8 +3052,8 @@
     <x v="0"/>
     <s v="Lyon-Bron (LFLY)"/>
     <s v="LFLY"/>
-    <n v="7.8719496195224347E-3"/>
-    <n v="3811"/>
+    <n v="7.8698845750262321E-3"/>
+    <n v="3812"/>
     <n v="30"/>
   </r>
   <r>
@@ -3124,7 +3149,7 @@
     <s v="Montijo AirBase (LPMT)"/>
     <s v="LPMT"/>
     <n v="0"/>
-    <n v="92"/>
+    <n v="88"/>
     <n v="0"/>
   </r>
   <r>
@@ -3155,8 +3180,8 @@
     <x v="0"/>
     <s v="Nantes-Atlantique (LFRS)"/>
     <s v="LFRS"/>
-    <n v="0.24259126128285008"/>
-    <n v="12519"/>
+    <n v="0.24261064067742452"/>
+    <n v="12518"/>
     <n v="3037"/>
   </r>
   <r>
@@ -3235,8 +3260,8 @@
     <x v="0"/>
     <s v="Paris-Orly (LFPO)"/>
     <s v="LFPO"/>
-    <n v="0.96049027016814659"/>
-    <n v="42344"/>
+    <n v="0.96080793763288452"/>
+    <n v="42330"/>
     <n v="40671"/>
   </r>
   <r>
@@ -3275,8 +3300,8 @@
     <x v="13"/>
     <s v="Porto (LPPR)"/>
     <s v="LPPR"/>
-    <n v="0.77214548802946592"/>
-    <n v="21720"/>
+    <n v="0.77218103964270912"/>
+    <n v="21719"/>
     <n v="16771"/>
   </r>
   <r>
@@ -3380,7 +3405,7 @@
     <s v="Saarbruecken (EDDR)"/>
     <s v="EDDR"/>
     <n v="0"/>
-    <n v="2077"/>
+    <n v="2078"/>
     <n v="0"/>
   </r>
   <r>
@@ -3388,7 +3413,7 @@
     <s v="Saint-Etienne-Bouthéon (LFMH)"/>
     <s v="LFMH"/>
     <n v="0"/>
-    <n v="664"/>
+    <n v="663"/>
     <n v="0"/>
   </r>
   <r>
@@ -3484,7 +3509,7 @@
     <s v="Tartu (EETU)"/>
     <s v="EETU"/>
     <n v="0"/>
-    <n v="457"/>
+    <n v="456"/>
     <n v="0"/>
   </r>
   <r>
@@ -3500,7 +3525,7 @@
     <s v="Tours-Val de Loire (LFOT)"/>
     <s v="LFOT"/>
     <n v="0"/>
-    <n v="951"/>
+    <n v="950"/>
     <n v="0"/>
   </r>
   <r>
@@ -3595,7 +3620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A5:D30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField name="State" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -4001,7 +4026,9 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4039,7 +4066,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -4161,10 +4188,10 @@
       </c>
       <c r="B10" s="24">
         <f t="shared" si="0"/>
-        <v>0.32159623101359314</v>
+        <v>0.32160066403744003</v>
       </c>
       <c r="C10" s="25">
-        <v>2684223</v>
+        <v>2684186</v>
       </c>
       <c r="D10" s="25">
         <v>863236</v>
@@ -4209,6 +4236,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4221,7 +4249,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4262,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -4569,17 +4597,17 @@
       </c>
       <c r="B18" s="65">
         <f t="shared" si="0"/>
-        <v>0.63323131083584006</v>
+        <v>0.6332326971873693</v>
       </c>
       <c r="C18" s="66">
-        <v>456762</v>
+        <v>456761</v>
       </c>
       <c r="D18" s="67">
         <v>289236</v>
       </c>
       <c r="E18" s="59">
         <f>D18/C18</f>
-        <v>0.63323131083584006</v>
+        <v>0.6332326971873693</v>
       </c>
       <c r="F18" s="68">
         <v>1</v>
@@ -4592,17 +4620,17 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="0"/>
-        <v>0.97043834449261523</v>
+        <v>0.97044055533026841</v>
       </c>
       <c r="C19" s="54">
-        <v>438947</v>
+        <v>438946</v>
       </c>
       <c r="D19" s="55">
         <v>425971</v>
       </c>
       <c r="E19" s="56">
         <f t="shared" ref="E19:E29" si="1">SUM(D$18:D19)/SUM(C$18:C19)</f>
-        <v>0.7984814264454192</v>
+        <v>0.7984832093530585</v>
       </c>
       <c r="F19" s="57">
         <v>1</v>
@@ -4615,17 +4643,17 @@
       </c>
       <c r="B20" s="53">
         <f t="shared" si="0"/>
-        <v>0.30514100220348528</v>
+        <v>0.30514312327091242</v>
       </c>
       <c r="C20" s="54">
-        <v>287726</v>
+        <v>287724</v>
       </c>
       <c r="D20" s="55">
         <v>87797</v>
       </c>
       <c r="E20" s="56">
         <f t="shared" si="1"/>
-        <v>0.67853663276817067</v>
+        <v>0.6785389262238356</v>
       </c>
       <c r="F20" s="57">
         <v>1</v>
@@ -4638,17 +4666,17 @@
       </c>
       <c r="B21" s="53">
         <f t="shared" si="0"/>
-        <v>1.3254728179156446E-3</v>
+        <v>1.3256826276216859E-3</v>
       </c>
       <c r="C21" s="54">
-        <v>50548</v>
+        <v>50540</v>
       </c>
       <c r="D21" s="54">
         <v>67</v>
       </c>
       <c r="E21" s="56">
         <f t="shared" si="1"/>
-        <v>0.6507958375439532</v>
+        <v>0.65080216633940347</v>
       </c>
       <c r="F21" s="57">
         <v>1</v>
@@ -4661,17 +4689,17 @@
       </c>
       <c r="B22" s="53">
         <f t="shared" si="0"/>
-        <v>6.7459392243724254E-3</v>
+        <v>6.7475124378109453E-3</v>
       </c>
       <c r="C22" s="54">
-        <v>64335</v>
+        <v>64320</v>
       </c>
       <c r="D22" s="54">
         <v>434</v>
       </c>
       <c r="E22" s="56">
         <f t="shared" si="1"/>
-        <v>0.61888150668788389</v>
+        <v>0.61889437730062058</v>
       </c>
       <c r="F22" s="57">
         <v>1</v>
@@ -4684,17 +4712,17 @@
       </c>
       <c r="B23" s="53">
         <f t="shared" si="0"/>
-        <v>1.2398460880718255E-2</v>
+        <v>1.2398942786069652E-2</v>
       </c>
       <c r="C23" s="54">
-        <v>102916</v>
+        <v>102912</v>
       </c>
       <c r="D23" s="54">
         <v>1276</v>
       </c>
       <c r="E23" s="56">
         <f t="shared" si="1"/>
-        <v>0.57433733409266408</v>
+        <v>0.57435004064364692</v>
       </c>
       <c r="F23" s="57">
         <v>1</v>
@@ -4707,17 +4735,17 @@
       </c>
       <c r="B24" s="53">
         <f t="shared" si="0"/>
-        <v>6.123744330478554E-2</v>
+        <v>6.1237713227839732E-2</v>
       </c>
       <c r="C24" s="54">
-        <v>226871</v>
+        <v>226870</v>
       </c>
       <c r="D24" s="54">
         <v>13893</v>
       </c>
       <c r="E24" s="56">
         <f t="shared" si="1"/>
-        <v>0.50283857613605998</v>
+        <v>0.50284845949782353</v>
       </c>
       <c r="F24" s="57">
         <v>1</v>
@@ -4740,7 +4768,7 @@
       </c>
       <c r="E25" s="56">
         <f t="shared" si="1"/>
-        <v>0.43793155829801944</v>
+        <v>0.43793889906853611</v>
       </c>
       <c r="F25" s="57">
         <v>1</v>
@@ -4763,7 +4791,7 @@
       </c>
       <c r="E26" s="56">
         <f t="shared" si="1"/>
-        <v>0.39087976409140529</v>
+        <v>0.39088556002246427</v>
       </c>
       <c r="F26" s="57">
         <v>1</v>
@@ -4776,17 +4804,17 @@
       </c>
       <c r="B27" s="53">
         <f t="shared" si="0"/>
-        <v>4.5667415362511253E-2</v>
+        <v>4.5667207725778508E-2</v>
       </c>
       <c r="C27" s="54">
-        <v>219938</v>
+        <v>219939</v>
       </c>
       <c r="D27" s="54">
         <v>10044</v>
       </c>
       <c r="E27" s="56">
         <f t="shared" si="1"/>
-        <v>0.35895237382372708</v>
+        <v>0.35895705312504339</v>
       </c>
       <c r="F27" s="57">
         <v>1</v>
@@ -4809,7 +4837,7 @@
       </c>
       <c r="E28" s="56">
         <f t="shared" si="1"/>
-        <v>0.33984131568448706</v>
+        <v>0.33984548948139931</v>
       </c>
       <c r="F28" s="57">
         <v>1</v>
@@ -4822,17 +4850,17 @@
       </c>
       <c r="B29" s="60">
         <f t="shared" si="0"/>
-        <v>3.3930489968268245E-2</v>
+        <v>3.393176167809802E-2</v>
       </c>
       <c r="C29" s="61">
-        <v>160092</v>
+        <v>160086</v>
       </c>
       <c r="D29" s="61">
         <v>5432</v>
       </c>
       <c r="E29" s="63">
         <f t="shared" si="1"/>
-        <v>0.32159623101359314</v>
+        <v>0.32160066403744003</v>
       </c>
       <c r="F29" s="69">
         <v>1</v>
@@ -5369,6 +5397,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5379,8 +5408,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5419,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -5454,25 +5483,25 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="114" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="79" t="s">
@@ -5481,73 +5510,73 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="115">
         <v>6</v>
       </c>
-      <c r="C7" s="118">
-        <v>75769</v>
-      </c>
-      <c r="D7" s="119">
+      <c r="C7" s="116">
+        <v>75768</v>
+      </c>
+      <c r="D7" s="117">
         <v>27626</v>
       </c>
       <c r="E7" s="80">
-        <f>D7/C7</f>
-        <v>0.36460821708086422</v>
+        <f t="shared" ref="E6:E30" si="0">D7/C7</f>
+        <v>0.36461302924717559</v>
       </c>
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B8" s="119">
         <v>1</v>
       </c>
-      <c r="C8" s="122">
+      <c r="C8" s="120">
         <v>45674</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="121">
         <v>17132</v>
       </c>
       <c r="E8" s="80">
-        <f t="shared" ref="E6:E30" si="0">D8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.37509305075097432</v>
       </c>
       <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="121">
+      <c r="B9" s="119">
         <v>4</v>
       </c>
-      <c r="C9" s="122">
-        <v>30706</v>
-      </c>
-      <c r="D9" s="123">
+      <c r="C9" s="120">
+        <v>30704</v>
+      </c>
+      <c r="D9" s="121">
         <v>2222</v>
       </c>
       <c r="E9" s="80">
         <f t="shared" si="0"/>
-        <v>7.2363707418745524E-2</v>
+        <v>7.2368421052631582E-2</v>
       </c>
       <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="119">
         <v>1</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="120">
         <v>49107</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="121">
         <v>0</v>
       </c>
       <c r="E10" s="80">
@@ -5557,16 +5586,16 @@
       <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="119">
         <v>2</v>
       </c>
-      <c r="C11" s="122">
-        <v>10058</v>
-      </c>
-      <c r="D11" s="123">
+      <c r="C11" s="120">
+        <v>10057</v>
+      </c>
+      <c r="D11" s="121">
         <v>0</v>
       </c>
       <c r="E11" s="80">
@@ -5576,16 +5605,16 @@
       <c r="F11" s="78"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="119">
         <v>1</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="120">
         <v>36403</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="121">
         <v>7202</v>
       </c>
       <c r="E12" s="80">
@@ -5595,54 +5624,54 @@
       <c r="F12" s="78"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="119">
         <v>57</v>
       </c>
-      <c r="C13" s="122">
-        <v>439705</v>
-      </c>
-      <c r="D13" s="123">
+      <c r="C13" s="120">
+        <v>439688</v>
+      </c>
+      <c r="D13" s="121">
         <v>132288</v>
       </c>
       <c r="E13" s="80">
         <f t="shared" si="0"/>
-        <v>0.3008562558988413</v>
+        <v>0.30086788813886212</v>
       </c>
       <c r="F13" s="78"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="119">
         <v>16</v>
       </c>
-      <c r="C14" s="122">
-        <v>438870</v>
-      </c>
-      <c r="D14" s="123">
+      <c r="C14" s="120">
+        <v>438869</v>
+      </c>
+      <c r="D14" s="121">
         <v>44155</v>
       </c>
       <c r="E14" s="80">
         <f t="shared" si="0"/>
-        <v>0.10061065919292729</v>
+        <v>0.10061088844279273</v>
       </c>
       <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="119">
         <v>1</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="120">
         <v>54647</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="121">
         <v>2253</v>
       </c>
       <c r="E15" s="80">
@@ -5652,16 +5681,16 @@
       <c r="F15" s="78"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="119">
         <v>1</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="120">
         <v>23897</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="121">
         <v>1910</v>
       </c>
       <c r="E16" s="80">
@@ -5671,35 +5700,35 @@
       <c r="F16" s="78"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="121">
+      <c r="B17" s="119">
         <v>3</v>
       </c>
-      <c r="C17" s="122">
-        <v>53879</v>
-      </c>
-      <c r="D17" s="123">
+      <c r="C17" s="120">
+        <v>53876</v>
+      </c>
+      <c r="D17" s="121">
         <v>6117</v>
       </c>
       <c r="E17" s="80">
         <f t="shared" si="0"/>
-        <v>0.11353217394532193</v>
+        <v>0.11353849580518227</v>
       </c>
       <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="119">
         <v>5</v>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="120">
         <v>155127</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="121">
         <v>6687</v>
       </c>
       <c r="E18" s="80">
@@ -5709,16 +5738,16 @@
       <c r="F18" s="78"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="121">
+      <c r="B19" s="119">
         <v>4</v>
       </c>
-      <c r="C19" s="122">
-        <v>17899</v>
-      </c>
-      <c r="D19" s="123">
+      <c r="C19" s="120">
+        <v>17898</v>
+      </c>
+      <c r="D19" s="121">
         <v>0</v>
       </c>
       <c r="E19" s="80">
@@ -5728,16 +5757,16 @@
       <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="121">
+      <c r="B20" s="119">
         <v>1</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="120">
         <v>20187</v>
       </c>
-      <c r="D20" s="123">
+      <c r="D20" s="121">
         <v>1134</v>
       </c>
       <c r="E20" s="80">
@@ -5747,16 +5776,16 @@
       <c r="F20" s="78"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="119">
         <v>1</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="120">
         <v>12090</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="121">
         <v>0</v>
       </c>
       <c r="E21" s="80">
@@ -5766,16 +5795,16 @@
       <c r="F21" s="78"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="119">
         <v>4</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="120">
         <v>131915</v>
       </c>
-      <c r="D22" s="123">
+      <c r="D22" s="121">
         <v>165987</v>
       </c>
       <c r="E22" s="80">
@@ -5785,16 +5814,16 @@
       <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="119">
         <v>4</v>
       </c>
-      <c r="C23" s="122">
+      <c r="C23" s="120">
         <v>130639</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="121">
         <v>4823</v>
       </c>
       <c r="E23" s="80">
@@ -5804,73 +5833,73 @@
       <c r="F23" s="78"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="121">
+      <c r="B24" s="119">
         <v>15</v>
       </c>
-      <c r="C24" s="122">
-        <v>97284</v>
-      </c>
-      <c r="D24" s="123">
+      <c r="C24" s="120">
+        <v>97281</v>
+      </c>
+      <c r="D24" s="121">
         <v>1956</v>
       </c>
       <c r="E24" s="80">
         <f t="shared" si="0"/>
-        <v>2.0106081164425804E-2</v>
+        <v>2.0106701205785303E-2</v>
       </c>
       <c r="F24" s="78"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="121">
+      <c r="B25" s="119">
         <v>11</v>
       </c>
-      <c r="C25" s="122">
-        <v>96692</v>
-      </c>
-      <c r="D25" s="123">
+      <c r="C25" s="120">
+        <v>96687</v>
+      </c>
+      <c r="D25" s="121">
         <v>93602</v>
       </c>
       <c r="E25" s="80">
         <f t="shared" si="0"/>
-        <v>0.96804285773383525</v>
+        <v>0.96809291838613254</v>
       </c>
       <c r="F25" s="78"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="121">
+      <c r="B26" s="119">
         <v>2</v>
       </c>
-      <c r="C26" s="122">
-        <v>28348</v>
-      </c>
-      <c r="D26" s="123">
+      <c r="C26" s="120">
+        <v>28345</v>
+      </c>
+      <c r="D26" s="121">
         <v>43</v>
       </c>
       <c r="E26" s="80">
         <f t="shared" si="0"/>
-        <v>1.5168618597431918E-3</v>
+        <v>1.5170224025401306E-3</v>
       </c>
       <c r="F26" s="78"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="121">
+      <c r="B27" s="119">
         <v>7</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="120">
         <v>277600</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="121">
         <v>82620</v>
       </c>
       <c r="E27" s="80">
@@ -5880,16 +5909,16 @@
       <c r="F27" s="78"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="121">
+      <c r="B28" s="119">
         <v>1</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="120">
         <v>43016</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="121">
         <v>203</v>
       </c>
       <c r="E28" s="80">
@@ -5899,16 +5928,16 @@
       <c r="F28" s="78"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="121">
+      <c r="B29" s="119">
         <v>2</v>
       </c>
-      <c r="C29" s="122">
+      <c r="C29" s="120">
         <v>91968</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="121">
         <v>37484</v>
       </c>
       <c r="E29" s="80">
@@ -5918,16 +5947,16 @@
       <c r="F29" s="78"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="125">
+      <c r="B30" s="123">
         <v>10</v>
       </c>
-      <c r="C30" s="126">
+      <c r="C30" s="124">
         <v>322743</v>
       </c>
-      <c r="D30" s="127">
+      <c r="D30" s="125">
         <v>227792</v>
       </c>
       <c r="E30" s="80">
@@ -5947,7 +5976,9 @@
   </sheetPr>
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5985,7 +6016,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -6578,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="86">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="F31" s="86">
         <v>0</v>
@@ -6620,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="86">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="F33" s="86">
         <v>0</v>
@@ -6683,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="86">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F36" s="86">
         <v>0</v>
@@ -6851,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="86">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="F44" s="86">
         <v>0</v>
@@ -7037,10 +7068,10 @@
       </c>
       <c r="D53" s="80">
         <f t="shared" si="0"/>
-        <v>0.14072744840913798</v>
+        <v>0.14073716178906681</v>
       </c>
       <c r="E53" s="86">
-        <v>43467</v>
+        <v>43464</v>
       </c>
       <c r="F53" s="86">
         <v>6117</v>
@@ -7103,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="86">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F56" s="86">
         <v>0</v>
@@ -7208,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="86">
-        <v>10818</v>
+        <v>10817</v>
       </c>
       <c r="F61" s="86">
         <v>0</v>
@@ -7502,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="86">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F75" s="86">
         <v>0</v>
@@ -7649,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="86">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F82" s="86">
         <v>0</v>
@@ -7667,10 +7698,10 @@
       </c>
       <c r="D83" s="80">
         <f t="shared" si="0"/>
-        <v>0.33396333396333394</v>
+        <v>0.33402646502835537</v>
       </c>
       <c r="E83" s="86">
-        <v>5291</v>
+        <v>5290</v>
       </c>
       <c r="F83" s="86">
         <v>1767</v>
@@ -7712,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="86">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="F85" s="86">
         <v>0</v>
@@ -7901,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="86">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F94" s="86">
         <v>0</v>
@@ -7940,10 +7971,10 @@
       </c>
       <c r="D96" s="80">
         <f t="shared" si="0"/>
-        <v>7.8719496195224347E-3</v>
+        <v>7.8698845750262321E-3</v>
       </c>
       <c r="E96" s="86">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="F96" s="86">
         <v>30</v>
@@ -8195,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="86">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F108" s="86">
         <v>0</v>
@@ -8276,10 +8307,10 @@
       </c>
       <c r="D112" s="80">
         <f t="shared" si="0"/>
-        <v>0.24259126128285008</v>
+        <v>0.24261064067742452</v>
       </c>
       <c r="E112" s="86">
-        <v>12519</v>
+        <v>12518</v>
       </c>
       <c r="F112" s="86">
         <v>3037</v>
@@ -8486,10 +8517,10 @@
       </c>
       <c r="D122" s="80">
         <f t="shared" si="0"/>
-        <v>0.96049027016814659</v>
+        <v>0.96080793763288452</v>
       </c>
       <c r="E122" s="86">
-        <v>42344</v>
+        <v>42330</v>
       </c>
       <c r="F122" s="86">
         <v>40671</v>
@@ -8591,10 +8622,10 @@
       </c>
       <c r="D127" s="80">
         <f t="shared" si="0"/>
-        <v>0.77214548802946592</v>
+        <v>0.77218103964270912</v>
       </c>
       <c r="E127" s="86">
-        <v>21720</v>
+        <v>21719</v>
       </c>
       <c r="F127" s="86">
         <v>16771</v>
@@ -8860,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="86">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="F140" s="86">
         <v>0</v>
@@ -8881,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="86">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F141" s="86">
         <v>0</v>
@@ -9133,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="86">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F153" s="86">
         <v>0</v>
@@ -9175,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="86">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F155" s="86">
         <v>0</v>
@@ -9424,7 +9455,9 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9449,174 +9482,183 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
+      <c r="A2" s="129">
+        <v>44211</v>
+      </c>
+      <c r="B2" s="126" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="127">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="90"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="92"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="90"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="90"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="90"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="94"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="107"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="105"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="107"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="105"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="107"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="105"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="107"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="105"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="110"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\drive-download-20210604T121810Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="APT_ATFM_SES_YY" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="200" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="445">
   <si>
     <t>Data source</t>
   </si>
@@ -1355,6 +1355,9 @@
   </si>
   <si>
     <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>Rouen arrivals added (no ATFM delays in 2020)</t>
   </si>
   <si>
     <t/>
@@ -1382,112 +1385,94 @@
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2217,7 +2202,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44351.597245833334" refreshedVersion="6" recordCount="151">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44351.729777546294" refreshedVersion="6" recordCount="151">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:F156" sheet="APT_ATFM_APT"/>
   </cacheSource>
@@ -2256,13 +2241,13 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Apt. ATFM dly [min./arr.]" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="2.971771990529958"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2.971771990529958"/>
     </cacheField>
     <cacheField name="FLTS [ARR]" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="117872"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="117872"/>
     </cacheField>
     <cacheField name="Airport ATFM arr. delay [total]" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="165963"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="165963"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3055,9 +3040,9 @@
     <x v="13"/>
     <s v="Rouen (LFOP)"/>
     <s v="LFOP"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="0"/>
+    <n v="1157"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="13"/>
@@ -3487,7 +3472,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A5:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField name="State" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -5270,7 +5255,7 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5309,7 +5294,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44308</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -5346,7 +5331,7 @@
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="111"/>
       <c r="B5" s="112" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C5" s="113"/>
       <c r="D5" s="114"/>
@@ -5492,17 +5477,17 @@
         <v>110</v>
       </c>
       <c r="B13" s="121">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="122">
-        <v>439688</v>
+        <v>440845</v>
       </c>
       <c r="D13" s="123">
         <v>132288</v>
       </c>
       <c r="E13" s="80">
         <f t="shared" si="0"/>
-        <v>0.30086788813886212</v>
+        <v>0.30007825879844391</v>
       </c>
       <c r="F13" s="78"/>
     </row>
@@ -9868,7 +9853,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44308</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -9932,7 +9917,7 @@
         <v>132</v>
       </c>
       <c r="D6" s="80">
-        <f t="shared" ref="D6:D102" si="0">F6/E6</f>
+        <f t="shared" ref="D6:D156" si="0">F6/E6</f>
         <v>0.37509305075097432</v>
       </c>
       <c r="E6" s="86">
@@ -11968,9 +11953,16 @@
       <c r="C103" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="D103" s="80"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
+      <c r="D103" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="86">
+        <v>1157</v>
+      </c>
+      <c r="F103" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="87" t="s">
@@ -11983,7 +11975,7 @@
         <v>328</v>
       </c>
       <c r="D104" s="80">
-        <f t="shared" ref="D104:D156" si="1">F104/E104</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E104" s="86">
@@ -12004,7 +11996,7 @@
         <v>330</v>
       </c>
       <c r="D105" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.60020376363418437</v>
       </c>
       <c r="E105" s="86">
@@ -12025,7 +12017,7 @@
         <v>332</v>
       </c>
       <c r="D106" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.10856070972243619</v>
       </c>
       <c r="E106" s="86">
@@ -12046,7 +12038,7 @@
         <v>334</v>
       </c>
       <c r="D107" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97249544626593809</v>
       </c>
       <c r="E107" s="86">
@@ -12067,7 +12059,7 @@
         <v>336</v>
       </c>
       <c r="D108" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.96080793763288452</v>
       </c>
       <c r="E108" s="86">
@@ -12088,7 +12080,7 @@
         <v>338</v>
       </c>
       <c r="D109" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.33402646502835537</v>
       </c>
       <c r="E109" s="86">
@@ -12109,7 +12101,7 @@
         <v>340</v>
       </c>
       <c r="D110" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E110" s="86">
@@ -12130,7 +12122,7 @@
         <v>342</v>
       </c>
       <c r="D111" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E111" s="86">
@@ -12151,7 +12143,7 @@
         <v>344</v>
       </c>
       <c r="D112" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E112" s="86">
@@ -12172,7 +12164,7 @@
         <v>346</v>
       </c>
       <c r="D113" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E113" s="86">
@@ -12193,7 +12185,7 @@
         <v>348</v>
       </c>
       <c r="D114" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E114" s="86">
@@ -12214,7 +12206,7 @@
         <v>350</v>
       </c>
       <c r="D115" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E115" s="86">
@@ -12235,7 +12227,7 @@
         <v>352</v>
       </c>
       <c r="D116" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E116" s="86">
@@ -12256,7 +12248,7 @@
         <v>354</v>
       </c>
       <c r="D117" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.24261064067742452</v>
       </c>
       <c r="E117" s="86">
@@ -12277,7 +12269,7 @@
         <v>356</v>
       </c>
       <c r="D118" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E118" s="86">
@@ -12298,7 +12290,7 @@
         <v>358</v>
       </c>
       <c r="D119" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.414046061984646</v>
       </c>
       <c r="E119" s="86">
@@ -12319,7 +12311,7 @@
         <v>360</v>
       </c>
       <c r="D120" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E120" s="86">
@@ -12340,7 +12332,7 @@
         <v>362</v>
       </c>
       <c r="D121" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.322048243757935E-2</v>
       </c>
       <c r="E121" s="86">
@@ -12361,7 +12353,7 @@
         <v>364</v>
       </c>
       <c r="D122" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3336063336063342E-2</v>
       </c>
       <c r="E122" s="86">
@@ -12382,7 +12374,7 @@
         <v>366</v>
       </c>
       <c r="D123" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E123" s="86">
@@ -12403,7 +12395,7 @@
         <v>368</v>
       </c>
       <c r="D124" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1228246747305436E-2</v>
       </c>
       <c r="E124" s="86">
@@ -12424,7 +12416,7 @@
         <v>370</v>
       </c>
       <c r="D125" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9926350587939912E-2</v>
       </c>
       <c r="E125" s="86">
@@ -12445,7 +12437,7 @@
         <v>372</v>
       </c>
       <c r="D126" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9814575247951702E-2</v>
       </c>
       <c r="E126" s="86">
@@ -12466,7 +12458,7 @@
         <v>374</v>
       </c>
       <c r="D127" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7029407220476901E-2</v>
       </c>
       <c r="E127" s="86">
@@ -12487,7 +12479,7 @@
         <v>376</v>
       </c>
       <c r="D128" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7384668069076855E-2</v>
       </c>
       <c r="E128" s="86">
@@ -12508,7 +12500,7 @@
         <v>378</v>
       </c>
       <c r="D129" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15889374090247452</v>
       </c>
       <c r="E129" s="86">
@@ -12529,7 +12521,7 @@
         <v>380</v>
       </c>
       <c r="D130" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2179680550721274E-2</v>
       </c>
       <c r="E130" s="86">
@@ -12550,7 +12542,7 @@
         <v>382</v>
       </c>
       <c r="D131" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E131" s="86">
@@ -12571,7 +12563,7 @@
         <v>384</v>
       </c>
       <c r="D132" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E132" s="86">
@@ -12592,7 +12584,7 @@
         <v>386</v>
       </c>
       <c r="D133" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8607090162300117E-2</v>
       </c>
       <c r="E133" s="86">
@@ -12613,7 +12605,7 @@
         <v>388</v>
       </c>
       <c r="D134" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E134" s="86">
@@ -12634,7 +12626,7 @@
         <v>390</v>
       </c>
       <c r="D135" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E135" s="86">
@@ -12655,7 +12647,7 @@
         <v>392</v>
       </c>
       <c r="D136" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E136" s="86">
@@ -12676,7 +12668,7 @@
         <v>394</v>
       </c>
       <c r="D137" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1772273425499232</v>
       </c>
       <c r="E137" s="86">
@@ -12697,7 +12689,7 @@
         <v>396</v>
       </c>
       <c r="D138" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E138" s="86">
@@ -12718,7 +12710,7 @@
         <v>398</v>
       </c>
       <c r="D139" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E139" s="86">
@@ -12739,7 +12731,7 @@
         <v>400</v>
       </c>
       <c r="D140" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7859185618956827E-2</v>
       </c>
       <c r="E140" s="86">
@@ -12760,7 +12752,7 @@
         <v>402</v>
       </c>
       <c r="D141" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.48880873103958566</v>
       </c>
       <c r="E141" s="86">
@@ -12781,7 +12773,7 @@
         <v>404</v>
       </c>
       <c r="D142" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E142" s="86">
@@ -12802,7 +12794,7 @@
         <v>406</v>
       </c>
       <c r="D143" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E143" s="86">
@@ -12823,7 +12815,7 @@
         <v>408</v>
       </c>
       <c r="D144" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E144" s="86">
@@ -12844,7 +12836,7 @@
         <v>410</v>
       </c>
       <c r="D145" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E145" s="86">
@@ -12865,7 +12857,7 @@
         <v>412</v>
       </c>
       <c r="D146" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E146" s="86">
@@ -12886,7 +12878,7 @@
         <v>414</v>
       </c>
       <c r="D147" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E147" s="86">
@@ -12907,7 +12899,7 @@
         <v>416</v>
       </c>
       <c r="D148" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E148" s="86">
@@ -12928,7 +12920,7 @@
         <v>418</v>
       </c>
       <c r="D149" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E149" s="86">
@@ -12949,7 +12941,7 @@
         <v>420</v>
       </c>
       <c r="D150" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77218103964270912</v>
       </c>
       <c r="E150" s="86">
@@ -12970,7 +12962,7 @@
         <v>422</v>
       </c>
       <c r="D151" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E151" s="86">
@@ -12991,7 +12983,7 @@
         <v>424</v>
       </c>
       <c r="D152" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7229385778036912</v>
       </c>
       <c r="E152" s="86">
@@ -13012,7 +13004,7 @@
         <v>426</v>
       </c>
       <c r="D153" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E153" s="86">
@@ -13033,7 +13025,7 @@
         <v>428</v>
       </c>
       <c r="D154" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6613862916312495E-3</v>
       </c>
       <c r="E154" s="86">
@@ -13054,7 +13046,7 @@
         <v>430</v>
       </c>
       <c r="D155" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4857222844344905</v>
       </c>
       <c r="E155" s="86">
@@ -13075,7 +13067,7 @@
         <v>432</v>
       </c>
       <c r="D156" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.60437390842129246</v>
       </c>
       <c r="E156" s="86">
@@ -13164,10 +13156,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
+      <c r="A5" s="90">
+        <v>44351</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="92">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94"/>

--- a/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\drive-download-20210714T065343Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="445">
   <si>
     <t>Data source</t>
   </si>
@@ -1273,91 +1273,91 @@
     <t>LPMA</t>
   </si>
   <si>
-    <t>Montijo AirBase (LPMT)</t>
+    <t>Ponta Delgada (LPPD)</t>
+  </si>
+  <si>
+    <t>LPPD</t>
+  </si>
+  <si>
+    <t>Porto (LPPR)</t>
+  </si>
+  <si>
+    <t>LPPR</t>
+  </si>
+  <si>
+    <t>Porto Santo (LPPS)</t>
+  </si>
+  <si>
+    <t>LPPS</t>
+  </si>
+  <si>
+    <t>Lisbon (LPPT)</t>
+  </si>
+  <si>
+    <t>LPPT</t>
+  </si>
+  <si>
+    <t>Bucharest/ Băneasa (LRBS)</t>
+  </si>
+  <si>
+    <t>LRBS</t>
+  </si>
+  <si>
+    <t>Bucharest/ Otopeni (LROP)</t>
+  </si>
+  <si>
+    <t>LROP</t>
+  </si>
+  <si>
+    <t>Geneva (LSGG)</t>
+  </si>
+  <si>
+    <t>LSGG</t>
+  </si>
+  <si>
+    <t>Zürich (LSZH)</t>
+  </si>
+  <si>
+    <t>LSZH</t>
+  </si>
+  <si>
+    <t>Change date</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>minor corrections in the number of arrivals</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>post-operational adjustments included for 2020</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>Rouen arrivals added (no ATFM delays in 2020)</t>
   </si>
   <si>
     <t>LPMT</t>
   </si>
   <si>
-    <t>Ponta Delgada (LPPD)</t>
-  </si>
-  <si>
-    <t>LPPD</t>
-  </si>
-  <si>
-    <t>Porto (LPPR)</t>
-  </si>
-  <si>
-    <t>LPPR</t>
-  </si>
-  <si>
-    <t>Porto Santo (LPPS)</t>
-  </si>
-  <si>
-    <t>LPPS</t>
-  </si>
-  <si>
-    <t>Lisbon (LPPT)</t>
-  </si>
-  <si>
-    <t>LPPT</t>
-  </si>
-  <si>
-    <t>Bucharest/ Băneasa (LRBS)</t>
-  </si>
-  <si>
-    <t>LRBS</t>
-  </si>
-  <si>
-    <t>Bucharest/ Otopeni (LROP)</t>
-  </si>
-  <si>
-    <t>LROP</t>
-  </si>
-  <si>
-    <t>Geneva (LSGG)</t>
-  </si>
-  <si>
-    <t>LSGG</t>
-  </si>
-  <si>
-    <t>Zürich (LSZH)</t>
-  </si>
-  <si>
-    <t>LSZH</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>various</t>
-  </si>
-  <si>
-    <t>minor corrections in the number of arrivals</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>post-operational adjustments included for 2020</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>UK airports removed</t>
-  </si>
-  <si>
-    <t>Rouen arrivals added (no ATFM delays in 2020)</t>
+    <t>Montijo AirBase removed from Portuguese airports</t>
   </si>
   <si>
     <t/>
@@ -1385,94 +1385,112 @@
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2202,9 +2220,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44351.729777546294" refreshedVersion="6" recordCount="151">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44391.3710244213" refreshedVersion="6" recordCount="150">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A5:F156" sheet="APT_ATFM_APT"/>
+    <worksheetSource ref="A5:F155" sheet="APT_ATFM_APT"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="State" numFmtId="0">
@@ -2259,7 +2277,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="151">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="150">
   <r>
     <x v="0"/>
     <s v="Brussels (EBBR)"/>
@@ -3398,14 +3416,6 @@
   </r>
   <r>
     <x v="20"/>
-    <s v="Montijo AirBase (LPMT)"/>
-    <s v="LPMT"/>
-    <n v="0"/>
-    <n v="88"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
     <s v="Ponta Delgada (LPPD)"/>
     <s v="LPPD"/>
     <n v="0"/>
@@ -3472,7 +3482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A5:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField name="State" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3912,7 +3922,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -3970,10 +3980,10 @@
       </c>
       <c r="B6" s="24">
         <f t="shared" ref="B6:B10" si="0">D6/C6</f>
-        <v>0.59872641912544866</v>
+        <v>0.59874499397569791</v>
       </c>
       <c r="C6" s="25">
-        <v>5125234</v>
+        <v>5125075</v>
       </c>
       <c r="D6" s="25">
         <v>3068613</v>
@@ -3986,10 +3996,10 @@
       </c>
       <c r="B7" s="24">
         <f t="shared" si="0"/>
-        <v>0.66338037705331632</v>
+        <v>0.66339781698842293</v>
       </c>
       <c r="C7" s="25">
-        <v>5287422</v>
+        <v>5287283</v>
       </c>
       <c r="D7" s="25">
         <v>3507572</v>
@@ -4002,10 +4012,10 @@
       </c>
       <c r="B8" s="24">
         <f t="shared" si="0"/>
-        <v>0.72195778902908925</v>
+        <v>0.72197557539436319</v>
       </c>
       <c r="C8" s="25">
-        <v>5479855</v>
+        <v>5479720</v>
       </c>
       <c r="D8" s="25">
         <v>3956224</v>
@@ -4018,10 +4028,10 @@
       </c>
       <c r="B9" s="24">
         <f t="shared" si="0"/>
-        <v>0.82634455151894848</v>
+        <v>0.82636379224764223</v>
       </c>
       <c r="C9" s="25">
-        <v>5540379</v>
+        <v>5540250</v>
       </c>
       <c r="D9" s="25">
         <v>4578262</v>
@@ -4034,10 +4044,10 @@
       </c>
       <c r="B10" s="24">
         <f t="shared" si="0"/>
-        <v>0.26902353339541185</v>
+        <v>0.26903355411528068</v>
       </c>
       <c r="C10" s="25">
-        <v>2362600</v>
+        <v>2362512</v>
       </c>
       <c r="D10" s="25">
         <v>635595</v>
@@ -4135,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -4202,10 +4212,10 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" ref="B6:B29" si="0">D6/C6</f>
-        <v>0.47472053452250179</v>
+        <v>0.47472769458556535</v>
       </c>
       <c r="C6" s="54">
-        <v>397813</v>
+        <v>397807</v>
       </c>
       <c r="D6" s="55">
         <v>188850</v>
@@ -4222,10 +4232,10 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="0"/>
-        <v>0.44890498315870753</v>
+        <v>0.44891574092811726</v>
       </c>
       <c r="C7" s="54">
-        <v>375565</v>
+        <v>375556</v>
       </c>
       <c r="D7" s="55">
         <v>168593</v>
@@ -4242,10 +4252,10 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="0"/>
-        <v>1.0145611580239522</v>
+        <v>1.0146129551029313</v>
       </c>
       <c r="C8" s="54">
-        <v>430941</v>
+        <v>430919</v>
       </c>
       <c r="D8" s="55">
         <v>437216</v>
@@ -4262,10 +4272,10 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="0"/>
-        <v>0.72732357501652056</v>
+        <v>0.72734085308834739</v>
       </c>
       <c r="C9" s="54">
-        <v>463058</v>
+        <v>463047</v>
       </c>
       <c r="D9" s="55">
         <v>336793</v>
@@ -4282,10 +4292,10 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="0"/>
-        <v>1.0458161446601415</v>
+        <v>1.0458497690129751</v>
       </c>
       <c r="C10" s="54">
-        <v>497663</v>
+        <v>497647</v>
       </c>
       <c r="D10" s="55">
         <v>520464</v>
@@ -4302,10 +4312,10 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="0"/>
-        <v>1.1409694475820582</v>
+        <v>1.1409917837503449</v>
       </c>
       <c r="C11" s="54">
-        <v>510827</v>
+        <v>510817</v>
       </c>
       <c r="D11" s="55">
         <v>582838</v>
@@ -4322,10 +4332,10 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="0"/>
-        <v>1.0594033517493318</v>
+        <v>1.0594212876744282</v>
       </c>
       <c r="C12" s="54">
-        <v>531603</v>
+        <v>531594</v>
       </c>
       <c r="D12" s="55">
         <v>563182</v>
@@ -4344,10 +4354,10 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="0"/>
-        <v>0.82848049720150874</v>
+        <v>0.82849485345933016</v>
       </c>
       <c r="C13" s="54">
-        <v>519387</v>
+        <v>519378</v>
       </c>
       <c r="D13" s="55">
         <v>430302</v>
@@ -4364,10 +4374,10 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="0"/>
-        <v>0.95644987549859106</v>
+        <v>0.95647600647893372</v>
       </c>
       <c r="C14" s="54">
-        <v>512444</v>
+        <v>512430</v>
       </c>
       <c r="D14" s="55">
         <v>490127</v>
@@ -4384,10 +4394,10 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="0"/>
-        <v>0.78149255669207951</v>
+        <v>0.7815084111694488</v>
       </c>
       <c r="C15" s="54">
-        <v>492926</v>
+        <v>492916</v>
       </c>
       <c r="D15" s="55">
         <v>385218</v>
@@ -4404,10 +4414,10 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="0"/>
-        <v>0.45140927738388503</v>
+        <v>0.45141927576821039</v>
       </c>
       <c r="C16" s="54">
-        <v>406343</v>
+        <v>406334</v>
       </c>
       <c r="D16" s="55">
         <v>183427</v>
@@ -4424,10 +4434,10 @@
       </c>
       <c r="B17" s="60">
         <f t="shared" si="0"/>
-        <v>0.72485185747457126</v>
+        <v>0.72485907343114198</v>
       </c>
       <c r="C17" s="61">
-        <v>401809</v>
+        <v>401805</v>
       </c>
       <c r="D17" s="62">
         <v>291252</v>
@@ -4444,17 +4454,17 @@
       </c>
       <c r="B18" s="65">
         <f t="shared" si="0"/>
-        <v>0.60204995824159135</v>
+        <v>0.60206824290465122</v>
       </c>
       <c r="C18" s="66">
-        <v>395130</v>
+        <v>395118</v>
       </c>
       <c r="D18" s="67">
         <v>237888</v>
       </c>
       <c r="E18" s="59">
         <f>D18/C18</f>
-        <v>0.60204995824159135</v>
+        <v>0.60206824290465122</v>
       </c>
       <c r="F18" s="68">
         <v>1</v>
@@ -4467,17 +4477,17 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="0"/>
-        <v>0.68287399237436841</v>
+        <v>0.68288660555493985</v>
       </c>
       <c r="C19" s="54">
-        <v>378985</v>
+        <v>378978</v>
       </c>
       <c r="D19" s="55">
         <v>258799</v>
       </c>
       <c r="E19" s="56">
         <f t="shared" ref="E19:E29" si="1">SUM(D$18:D19)/SUM(C$18:C19)</f>
-        <v>0.64161913927517233</v>
+        <v>0.64163488766251209</v>
       </c>
       <c r="F19" s="57">
         <v>1</v>
@@ -4490,17 +4500,17 @@
       </c>
       <c r="B20" s="53">
         <f t="shared" si="0"/>
-        <v>0.32470817279103298</v>
+        <v>0.32472007592265989</v>
       </c>
       <c r="C20" s="54">
-        <v>245522</v>
+        <v>245513</v>
       </c>
       <c r="D20" s="55">
         <v>79723</v>
       </c>
       <c r="E20" s="56">
         <f t="shared" si="1"/>
-        <v>0.56530902664379579</v>
+        <v>0.56532455088175959</v>
       </c>
       <c r="F20" s="57">
         <v>1</v>
@@ -4513,17 +4523,17 @@
       </c>
       <c r="B21" s="53">
         <f t="shared" si="0"/>
-        <v>2.8774430598286815E-4</v>
+        <v>2.8777615442511181E-4</v>
       </c>
       <c r="C21" s="54">
-        <v>45179</v>
+        <v>45174</v>
       </c>
       <c r="D21" s="54">
         <v>13</v>
       </c>
       <c r="E21" s="56">
         <f t="shared" si="1"/>
-        <v>0.54133578007843608</v>
+        <v>0.54135255728162457</v>
       </c>
       <c r="F21" s="57">
         <v>1</v>
@@ -4536,17 +4546,17 @@
       </c>
       <c r="B22" s="53">
         <f t="shared" si="0"/>
-        <v>7.5234892348230069E-3</v>
+        <v>7.5244022954628204E-3</v>
       </c>
       <c r="C22" s="54">
-        <v>57686</v>
+        <v>57679</v>
       </c>
       <c r="D22" s="54">
         <v>434</v>
       </c>
       <c r="E22" s="56">
         <f t="shared" si="1"/>
-        <v>0.51390287055167827</v>
+        <v>0.51392118396881137</v>
       </c>
       <c r="F22" s="57">
         <v>1</v>
@@ -4559,17 +4569,17 @@
       </c>
       <c r="B23" s="53">
         <f t="shared" si="0"/>
-        <v>1.3500788251351667E-2</v>
+        <v>1.3501931114755833E-2</v>
       </c>
       <c r="C23" s="54">
-        <v>94513</v>
+        <v>94505</v>
       </c>
       <c r="D23" s="54">
         <v>1276</v>
       </c>
       <c r="E23" s="56">
         <f t="shared" si="1"/>
-        <v>0.47504180310020827</v>
+        <v>0.47506053985029995</v>
       </c>
       <c r="F23" s="57">
         <v>1</v>
@@ -4582,17 +4592,17 @@
       </c>
       <c r="B24" s="53">
         <f t="shared" si="0"/>
-        <v>6.7452880572521676E-2</v>
+        <v>6.74551731169796E-2</v>
       </c>
       <c r="C24" s="54">
-        <v>205966</v>
+        <v>205959</v>
       </c>
       <c r="D24" s="54">
         <v>13893</v>
       </c>
       <c r="E24" s="56">
         <f t="shared" si="1"/>
-        <v>0.41604631404073561</v>
+        <v>0.41606239537403911</v>
       </c>
       <c r="F24" s="57">
         <v>1</v>
@@ -4605,17 +4615,17 @@
       </c>
       <c r="B25" s="53">
         <f t="shared" si="0"/>
-        <v>6.6909639109742555E-2</v>
+        <v>6.691098048964339E-2</v>
       </c>
       <c r="C25" s="54">
-        <v>249411</v>
+        <v>249406</v>
       </c>
       <c r="D25" s="54">
         <v>16688</v>
       </c>
       <c r="E25" s="56">
         <f t="shared" si="1"/>
-        <v>0.36397806255949561</v>
+        <v>0.3639911213802044</v>
       </c>
       <c r="F25" s="57">
         <v>1</v>
@@ -4628,17 +4638,17 @@
       </c>
       <c r="B26" s="53">
         <f t="shared" si="0"/>
-        <v>3.414764783848067E-2</v>
+        <v>3.4149042891706269E-2</v>
       </c>
       <c r="C26" s="54">
-        <v>220308</v>
+        <v>220299</v>
       </c>
       <c r="D26" s="54">
         <v>7523</v>
       </c>
       <c r="E26" s="56">
         <f t="shared" si="1"/>
-        <v>0.32558619960902413</v>
+        <v>0.32559806956559412</v>
       </c>
       <c r="F26" s="57">
         <v>1</v>
@@ -4651,17 +4661,17 @@
       </c>
       <c r="B27" s="53">
         <f t="shared" si="0"/>
-        <v>5.164674122637871E-2</v>
+        <v>5.1648334696018386E-2</v>
       </c>
       <c r="C27" s="54">
-        <v>194475</v>
+        <v>194469</v>
       </c>
       <c r="D27" s="54">
         <v>10044</v>
       </c>
       <c r="E27" s="56">
         <f t="shared" si="1"/>
-        <v>0.30006156647142668</v>
+        <v>0.30007234919265968</v>
       </c>
       <c r="F27" s="57">
         <v>1</v>
@@ -4674,17 +4684,17 @@
       </c>
       <c r="B28" s="53">
         <f t="shared" si="0"/>
-        <v>3.1757212212098491E-2</v>
+        <v>3.175841488169176E-2</v>
       </c>
       <c r="C28" s="54">
-        <v>132033</v>
+        <v>132028</v>
       </c>
       <c r="D28" s="54">
         <v>4193</v>
       </c>
       <c r="E28" s="56">
         <f t="shared" si="1"/>
-        <v>0.28409865141077356</v>
+        <v>0.2841088932229236</v>
       </c>
       <c r="F28" s="57">
         <v>1</v>
@@ -4697,17 +4707,17 @@
       </c>
       <c r="B29" s="60">
         <f t="shared" si="0"/>
-        <v>3.5713289444320465E-2</v>
+        <v>3.5715282039837079E-2</v>
       </c>
       <c r="C29" s="61">
-        <v>143392</v>
+        <v>143384</v>
       </c>
       <c r="D29" s="61">
         <v>5121</v>
       </c>
       <c r="E29" s="63">
         <f t="shared" si="1"/>
-        <v>0.26902353339541185</v>
+        <v>0.26903355411528068</v>
       </c>
       <c r="F29" s="69">
         <v>1</v>
@@ -5255,7 +5265,7 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5294,7 +5304,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -5705,17 +5715,17 @@
         <v>122</v>
       </c>
       <c r="B25" s="121">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="122">
-        <v>96687</v>
+        <v>96599</v>
       </c>
       <c r="D25" s="123">
         <v>93602</v>
       </c>
       <c r="E25" s="80">
         <f t="shared" si="0"/>
-        <v>0.96809291838613254</v>
+        <v>0.96897483410801355</v>
       </c>
       <c r="F25" s="78"/>
     </row>
@@ -9917,7 +9927,7 @@
         <v>132</v>
       </c>
       <c r="D6" s="80">
-        <f t="shared" ref="D6:D156" si="0">F6/E6</f>
+        <f t="shared" ref="D6:D155" si="0">F6/E6</f>
         <v>0.37509305075097432</v>
       </c>
       <c r="E6" s="86">
@@ -12903,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="86">
-        <v>88</v>
+        <v>6130</v>
       </c>
       <c r="F148" s="86">
         <v>0</v>
@@ -12921,13 +12931,13 @@
       </c>
       <c r="D149" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.77218103964270912</v>
       </c>
       <c r="E149" s="86">
-        <v>6130</v>
+        <v>21719</v>
       </c>
       <c r="F149" s="86">
-        <v>0</v>
+        <v>16771</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12942,13 +12952,13 @@
       </c>
       <c r="D150" s="80">
         <f t="shared" si="0"/>
-        <v>0.77218103964270912</v>
+        <v>0</v>
       </c>
       <c r="E150" s="86">
-        <v>21719</v>
+        <v>749</v>
       </c>
       <c r="F150" s="86">
-        <v>16771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12963,18 +12973,18 @@
       </c>
       <c r="D151" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7229385778036912</v>
       </c>
       <c r="E151" s="86">
-        <v>749</v>
+        <v>44593</v>
       </c>
       <c r="F151" s="86">
-        <v>0</v>
+        <v>76831</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B152" s="85" t="s">
         <v>423</v>
@@ -12984,13 +12994,13 @@
       </c>
       <c r="D152" s="80">
         <f t="shared" si="0"/>
-        <v>1.7229385778036912</v>
+        <v>0</v>
       </c>
       <c r="E152" s="86">
-        <v>44593</v>
+        <v>2463</v>
       </c>
       <c r="F152" s="86">
-        <v>76831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13005,18 +13015,18 @@
       </c>
       <c r="D153" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6613862916312495E-3</v>
       </c>
       <c r="E153" s="86">
-        <v>2463</v>
+        <v>25882</v>
       </c>
       <c r="F153" s="86">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="87" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B154" s="85" t="s">
         <v>427</v>
@@ -13026,13 +13036,13 @@
       </c>
       <c r="D154" s="80">
         <f t="shared" si="0"/>
-        <v>1.6613862916312495E-3</v>
+        <v>0.4857222844344905</v>
       </c>
       <c r="E154" s="86">
-        <v>25882</v>
+        <v>39292</v>
       </c>
       <c r="F154" s="86">
-        <v>43</v>
+        <v>19085</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13047,36 +13057,16 @@
       </c>
       <c r="D155" s="80">
         <f t="shared" si="0"/>
-        <v>0.4857222844344905</v>
+        <v>0.60437390842129246</v>
       </c>
       <c r="E155" s="86">
-        <v>39292</v>
+        <v>52676</v>
       </c>
       <c r="F155" s="86">
-        <v>19085</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="B156" s="85" t="s">
-        <v>431</v>
-      </c>
-      <c r="C156" s="85" t="s">
-        <v>432</v>
-      </c>
-      <c r="D156" s="80">
-        <f t="shared" si="0"/>
-        <v>0.60437390842129246</v>
-      </c>
-      <c r="E156" s="86">
-        <v>52676</v>
-      </c>
-      <c r="F156" s="86">
         <v>31836</v>
       </c>
     </row>
+    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13101,16 +13091,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="D1" s="88" t="s">
         <v>434</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>435</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13118,13 +13108,13 @@
         <v>44211</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C2" s="92">
         <v>2020</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13132,13 +13122,13 @@
         <v>44308</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C3" s="92">
         <v>2020</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13146,13 +13136,13 @@
         <v>44351</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C4" s="92">
         <v>2020</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13166,14 +13156,22 @@
         <v>2020</v>
       </c>
       <c r="D5" s="93" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="90">
+        <v>44391</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="92">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="93" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="94"/>

--- a/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ATFM_ARR_2020_Jan_Dec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\drive-download-20210714T065343Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\drive-download-20210729T155419Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="APT_ATFM_SES_YY" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId6"/>
+    <pivotCache cacheId="199" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="446">
   <si>
     <t>Data source</t>
   </si>
@@ -1351,13 +1351,16 @@
     <t>UK airports removed</t>
   </si>
   <si>
-    <t>Rouen arrivals added (no ATFM delays in 2020)</t>
+    <t>Rouen arrivals added</t>
   </si>
   <si>
     <t>LPMT</t>
   </si>
   <si>
     <t>Montijo AirBase removed from Portuguese airports</t>
+  </si>
+  <si>
+    <t>Correction - rouen 151 minutes of arrival ATFM delay added</t>
   </si>
   <si>
     <t/>
@@ -1911,7 +1914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2156,7 +2159,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2220,7 +2222,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44391.3710244213" refreshedVersion="6" recordCount="150">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="44406.75038888889" refreshedVersion="6" recordCount="150">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:F155" sheet="APT_ATFM_APT"/>
   </cacheSource>
@@ -3058,9 +3060,9 @@
     <x v="13"/>
     <s v="Rouen (LFOP)"/>
     <s v="LFOP"/>
-    <n v="0"/>
+    <n v="0.13050993949870354"/>
     <n v="1157"/>
-    <n v="0"/>
+    <n v="151"/>
   </r>
   <r>
     <x v="13"/>
@@ -3482,7 +3484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="APT_ATFM_LOC" cacheId="199" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A5:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField name="State" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3884,7 +3886,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5264,8 +5266,8 @@
   </sheetPr>
   <dimension ref="A1:F530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5339,28 +5341,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="79" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="115" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="80" t="s">
@@ -5369,35 +5371,35 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="116">
         <v>6</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="117">
         <v>75768</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="118">
         <v>27626</v>
       </c>
       <c r="E7" s="80">
-        <f t="shared" ref="E6:E29" si="0">D7/C7</f>
+        <f t="shared" ref="E7:E29" si="0">D7/C7</f>
         <v>0.36461302924717559</v>
       </c>
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B8" s="120">
         <v>1</v>
       </c>
-      <c r="C8" s="122">
+      <c r="C8" s="121">
         <v>45674</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="122">
         <v>17132</v>
       </c>
       <c r="E8" s="80">
@@ -5407,16 +5409,16 @@
       <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="121">
+      <c r="B9" s="120">
         <v>4</v>
       </c>
-      <c r="C9" s="122">
+      <c r="C9" s="121">
         <v>30704</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="122">
         <v>2222</v>
       </c>
       <c r="E9" s="80">
@@ -5426,16 +5428,16 @@
       <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="120">
         <v>1</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="121">
         <v>49107</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="122">
         <v>0</v>
       </c>
       <c r="E10" s="80">
@@ -5445,16 +5447,16 @@
       <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="120">
         <v>2</v>
       </c>
-      <c r="C11" s="122">
+      <c r="C11" s="121">
         <v>10057</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="122">
         <v>0</v>
       </c>
       <c r="E11" s="80">
@@ -5464,16 +5466,16 @@
       <c r="F11" s="78"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="120">
         <v>1</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="121">
         <v>36403</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="122">
         <v>7202</v>
       </c>
       <c r="E12" s="80">
@@ -5483,35 +5485,35 @@
       <c r="F12" s="78"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="120">
         <v>58</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="121">
         <v>440845</v>
       </c>
-      <c r="D13" s="123">
-        <v>132288</v>
+      <c r="D13" s="122">
+        <v>132439</v>
       </c>
       <c r="E13" s="80">
         <f t="shared" si="0"/>
-        <v>0.30007825879844391</v>
+        <v>0.30042078281482154</v>
       </c>
       <c r="F13" s="78"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="120">
         <v>16</v>
       </c>
-      <c r="C14" s="122">
+      <c r="C14" s="121">
         <v>438869</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="122">
         <v>44155</v>
       </c>
       <c r="E14" s="80">
@@ -5521,16 +5523,16 @@
       <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="120">
         <v>1</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="121">
         <v>54647</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="122">
         <v>2253</v>
       </c>
       <c r="E15" s="80">
@@ -5540,16 +5542,16 @@
       <c r="F15" s="78"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="120">
         <v>1</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="121">
         <v>23897</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="122">
         <v>1910</v>
       </c>
       <c r="E16" s="80">
@@ -5559,16 +5561,16 @@
       <c r="F16" s="78"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="121">
+      <c r="B17" s="120">
         <v>3</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="121">
         <v>53876</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="122">
         <v>6117</v>
       </c>
       <c r="E17" s="80">
@@ -5578,16 +5580,16 @@
       <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="120">
         <v>5</v>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="121">
         <v>155127</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="122">
         <v>6687</v>
       </c>
       <c r="E18" s="80">
@@ -5597,16 +5599,16 @@
       <c r="F18" s="78"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="121">
+      <c r="B19" s="120">
         <v>4</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="121">
         <v>17898</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="122">
         <v>0</v>
       </c>
       <c r="E19" s="80">
@@ -5616,16 +5618,16 @@
       <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="121">
+      <c r="B20" s="120">
         <v>1</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="121">
         <v>20187</v>
       </c>
-      <c r="D20" s="123">
+      <c r="D20" s="122">
         <v>1134</v>
       </c>
       <c r="E20" s="80">
@@ -5635,16 +5637,16 @@
       <c r="F20" s="78"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="120">
         <v>1</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="121">
         <v>12090</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="122">
         <v>0</v>
       </c>
       <c r="E21" s="80">
@@ -5654,16 +5656,16 @@
       <c r="F21" s="78"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="120">
         <v>4</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="121">
         <v>131915</v>
       </c>
-      <c r="D22" s="123">
+      <c r="D22" s="122">
         <v>165987</v>
       </c>
       <c r="E22" s="80">
@@ -5673,16 +5675,16 @@
       <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="120">
         <v>4</v>
       </c>
-      <c r="C23" s="122">
+      <c r="C23" s="121">
         <v>130639</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="122">
         <v>4551</v>
       </c>
       <c r="E23" s="80">
@@ -5692,16 +5694,16 @@
       <c r="F23" s="78"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="121">
+      <c r="B24" s="120">
         <v>15</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="121">
         <v>97281</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="122">
         <v>1956</v>
       </c>
       <c r="E24" s="80">
@@ -5711,16 +5713,16 @@
       <c r="F24" s="78"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="121">
+      <c r="B25" s="120">
         <v>10</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="121">
         <v>96599</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="122">
         <v>93602</v>
       </c>
       <c r="E25" s="80">
@@ -5730,16 +5732,16 @@
       <c r="F25" s="78"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="121">
+      <c r="B26" s="120">
         <v>2</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="121">
         <v>28345</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="122">
         <v>43</v>
       </c>
       <c r="E26" s="80">
@@ -5749,16 +5751,16 @@
       <c r="F26" s="78"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="121">
+      <c r="B27" s="120">
         <v>7</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="121">
         <v>277600</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="122">
         <v>82620</v>
       </c>
       <c r="E27" s="80">
@@ -5768,16 +5770,16 @@
       <c r="F27" s="78"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="121">
+      <c r="B28" s="120">
         <v>1</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="121">
         <v>43016</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="122">
         <v>203</v>
       </c>
       <c r="E28" s="80">
@@ -5787,16 +5789,16 @@
       <c r="F28" s="78"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="125">
+      <c r="B29" s="124">
         <v>2</v>
       </c>
-      <c r="C29" s="126">
+      <c r="C29" s="125">
         <v>91968</v>
       </c>
-      <c r="D29" s="127">
+      <c r="D29" s="126">
         <v>50921</v>
       </c>
       <c r="E29" s="80">
@@ -11965,13 +11967,13 @@
       </c>
       <c r="D103" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13050993949870354</v>
       </c>
       <c r="E103" s="86">
         <v>1157</v>
       </c>
       <c r="F103" s="86">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13174,142 +13176,150 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
+      <c r="A7" s="90">
+        <v>44405</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="92">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="94"/>
       <c r="B8" s="95"/>
       <c r="C8" s="96"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="97"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="95"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="95"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="95"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="95"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="95"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="95"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="95"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="95"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="95"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="95"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="95"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="95"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="95"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="95"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="95"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="107"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="106"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="107"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="106"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="107"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="106"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="107"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="106"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="110"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
